--- a/atividades/Atividade01e02.xlsx
+++ b/atividades/Atividade01e02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\atividade-senac\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9A7C86-9EC0-43AB-A578-4C9588440669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6E9EB0-41BD-465D-B882-7A72EF86E7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="210" windowWidth="28800" windowHeight="20830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="50" windowWidth="28800" windowHeight="20830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>YASMIN ALINE</t>
   </si>
   <si>
-    <t>Exercicios Atividade 02 - 100 Repeticao</t>
-  </si>
-  <si>
     <t>VIVIANE</t>
   </si>
   <si>
@@ -163,10 +160,13 @@
     <t>Exercicios Atividade 01 - Condicionais - 11-08-2022</t>
   </si>
   <si>
-    <t>Exercicios Atividade 01 - Repeticao - 15-08-2022</t>
-  </si>
-  <si>
     <t>TODOS OS GRUPOS DEVEM FAZER TODOS OS EXERCICIOS DO 52 ATE O 66</t>
+  </si>
+  <si>
+    <t>Exercicios Atividade 01 - Repeticao - 11-08-2022</t>
+  </si>
+  <si>
+    <t>Exercicios Atividade 02 - 100 Repeticao - 15-08-2022</t>
   </si>
 </sst>
 </file>
@@ -331,12 +331,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,6 +341,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -355,9 +358,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,7 +641,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:J20"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,18 +656,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.5">
@@ -738,11 +738,11 @@
         <v>7</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
@@ -782,11 +782,11 @@
         <v>14</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="19"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="A5" s="7">
@@ -826,11 +826,11 @@
         <v>21</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="L5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
@@ -857,11 +857,11 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="L6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
@@ -896,11 +896,11 @@
         <v>7</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
@@ -911,21 +911,21 @@
         <v>14</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
+      <c r="D8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
@@ -957,12 +957,12 @@
       <c r="J9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19" t="s">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
@@ -1261,15 +1261,15 @@
         <v>23</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
@@ -1280,15 +1280,15 @@
         <v>24</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
+      <c r="D19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
@@ -1299,15 +1299,15 @@
         <v>25</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
+      <c r="D20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A21" s="7">

--- a/atividades/Atividade01e02.xlsx
+++ b/atividades/Atividade01e02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\atividade-senac\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6E9EB0-41BD-465D-B882-7A72EF86E7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A6CFB5-B835-4DA7-8B5F-948927F548FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="50" windowWidth="28800" windowHeight="20830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Grupo 1</t>
   </si>
@@ -225,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -356,6 +362,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -638,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,7 +660,7 @@
     <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
     <col min="4" max="10" width="13.453125" style="3" customWidth="1"/>
     <col min="11" max="12" width="9.1796875" style="3"/>
-    <col min="13" max="13" width="12.36328125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
@@ -874,25 +883,25 @@
       <c r="C7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="22">
         <v>1</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="22">
         <v>16</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="22">
         <v>3</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="22">
         <v>11</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="22">
         <v>24</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="22">
         <v>20</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="22">
         <v>7</v>
       </c>
       <c r="K7" s="1"/>
@@ -1271,7 +1280,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1290,7 +1299,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1299,17 +1308,29 @@
         <v>25</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1318,29 +1339,35 @@
         <v>26</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D21" s="8">
+        <v>52</v>
+      </c>
+      <c r="E21" s="8">
+        <f>D21</f>
+        <v>52</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" ref="F21:J21" si="15">E21</f>
+        <v>52</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="15"/>
+        <v>52</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="15"/>
+        <v>52</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="15"/>
+        <v>52</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="15"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1350,34 +1377,35 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="8">
-        <v>1</v>
+        <f>D21+1</f>
+        <v>53</v>
       </c>
       <c r="E22" s="8">
-        <f>D22+1</f>
-        <v>2</v>
+        <f t="shared" ref="E22:J22" si="16">D22</f>
+        <v>53</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" ref="F22:J22" si="15">E22+1</f>
-        <v>3</v>
+        <f t="shared" si="16"/>
+        <v>53</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>53</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="15"/>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>53</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <f t="shared" si="16"/>
+        <v>53</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="16"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1387,35 +1415,35 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="8">
-        <f>D22+7</f>
-        <v>8</v>
+        <f t="shared" ref="D23:D35" si="17">D22+1</f>
+        <v>54</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" ref="E23:J23" si="16">D23+1</f>
-        <v>9</v>
+        <f t="shared" ref="E23:J23" si="18">D23</f>
+        <v>54</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f t="shared" si="18"/>
+        <v>54</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="16"/>
-        <v>11</v>
+        <f t="shared" si="18"/>
+        <v>54</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="16"/>
-        <v>12</v>
+        <f t="shared" si="18"/>
+        <v>54</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="16"/>
-        <v>13</v>
+        <f t="shared" si="18"/>
+        <v>54</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="18"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1425,32 +1453,32 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="8">
-        <f t="shared" ref="D24:D36" si="17">D23+7</f>
-        <v>15</v>
+        <f t="shared" si="17"/>
+        <v>55</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" ref="E24:J24" si="18">D24+1</f>
-        <v>16</v>
+        <f t="shared" ref="E24:J24" si="19">D24</f>
+        <v>55</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="18"/>
-        <v>17</v>
+        <f t="shared" si="19"/>
+        <v>55</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="18"/>
-        <v>18</v>
+        <f t="shared" si="19"/>
+        <v>55</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="19"/>
+        <v>55</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="18"/>
-        <v>20</v>
+        <f t="shared" si="19"/>
+        <v>55</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="18"/>
-        <v>21</v>
+        <f t="shared" si="19"/>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
@@ -1463,31 +1491,31 @@
       <c r="C25" s="5"/>
       <c r="D25" s="8">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:J25" si="19">D25+1</f>
-        <v>23</v>
+        <f t="shared" ref="E25:J25" si="20">D25</f>
+        <v>56</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="19"/>
-        <v>24</v>
+        <f t="shared" si="20"/>
+        <v>56</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="19"/>
-        <v>25</v>
+        <f t="shared" si="20"/>
+        <v>56</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="19"/>
-        <v>26</v>
+        <f t="shared" si="20"/>
+        <v>56</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="19"/>
-        <v>27</v>
+        <f t="shared" si="20"/>
+        <v>56</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="19"/>
-        <v>28</v>
+        <f t="shared" si="20"/>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
@@ -1496,445 +1524,882 @@
       <c r="C26" s="5"/>
       <c r="D26" s="8">
         <f t="shared" si="17"/>
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" ref="E26:J26" si="20">D26+1</f>
-        <v>30</v>
+        <f t="shared" ref="E26:J26" si="21">D26</f>
+        <v>57</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="20"/>
-        <v>31</v>
+        <f t="shared" si="21"/>
+        <v>57</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="20"/>
-        <v>32</v>
+        <f t="shared" si="21"/>
+        <v>57</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="20"/>
-        <v>33</v>
+        <f t="shared" si="21"/>
+        <v>57</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="20"/>
-        <v>34</v>
+        <f t="shared" si="21"/>
+        <v>57</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="20"/>
-        <v>35</v>
+        <f t="shared" si="21"/>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C27" s="5"/>
       <c r="D27" s="8">
         <f t="shared" si="17"/>
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" ref="E27:J27" si="21">D27+1</f>
-        <v>37</v>
+        <f t="shared" ref="E27:J27" si="22">D27</f>
+        <v>58</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="21"/>
-        <v>38</v>
+        <f t="shared" si="22"/>
+        <v>58</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="21"/>
-        <v>39</v>
+        <f t="shared" si="22"/>
+        <v>58</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="21"/>
-        <v>40</v>
+        <f t="shared" si="22"/>
+        <v>58</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="21"/>
-        <v>41</v>
+        <f t="shared" si="22"/>
+        <v>58</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="21"/>
-        <v>42</v>
+        <f t="shared" si="22"/>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C28" s="5"/>
       <c r="D28" s="8">
         <f t="shared" si="17"/>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:J28" si="22">D28+1</f>
-        <v>44</v>
+        <f t="shared" ref="E28:J28" si="23">D28</f>
+        <v>59</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="22"/>
-        <v>45</v>
+        <f t="shared" si="23"/>
+        <v>59</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="22"/>
-        <v>46</v>
+        <f t="shared" si="23"/>
+        <v>59</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="22"/>
-        <v>47</v>
+        <f t="shared" si="23"/>
+        <v>59</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="22"/>
-        <v>48</v>
+        <f t="shared" si="23"/>
+        <v>59</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="22"/>
-        <v>49</v>
+        <f t="shared" si="23"/>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C29" s="5"/>
       <c r="D29" s="8">
         <f t="shared" si="17"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" ref="E29:J29" si="23">D29+1</f>
-        <v>51</v>
+        <f t="shared" ref="E29:J29" si="24">D29</f>
+        <v>60</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="23"/>
-        <v>52</v>
+        <f t="shared" si="24"/>
+        <v>60</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="23"/>
-        <v>53</v>
+        <f t="shared" si="24"/>
+        <v>60</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="23"/>
-        <v>54</v>
+        <f t="shared" si="24"/>
+        <v>60</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="23"/>
-        <v>55</v>
+        <f t="shared" si="24"/>
+        <v>60</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="23"/>
-        <v>56</v>
+        <f t="shared" si="24"/>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C30" s="5"/>
       <c r="D30" s="8">
         <f t="shared" si="17"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E30" s="8">
-        <f t="shared" ref="E30:J30" si="24">D30+1</f>
-        <v>58</v>
+        <f t="shared" ref="E30:J30" si="25">D30</f>
+        <v>61</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="24"/>
-        <v>59</v>
+        <f t="shared" si="25"/>
+        <v>61</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="24"/>
-        <v>60</v>
+        <f t="shared" si="25"/>
+        <v>61</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>61</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="24"/>
-        <v>62</v>
+        <f t="shared" si="25"/>
+        <v>61</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="24"/>
-        <v>63</v>
+        <f t="shared" si="25"/>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C31" s="5"/>
       <c r="D31" s="8">
         <f t="shared" si="17"/>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" ref="E31:J31" si="25">D31+1</f>
-        <v>65</v>
+        <f t="shared" ref="E31:J31" si="26">D31</f>
+        <v>62</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="25"/>
-        <v>66</v>
+        <f t="shared" si="26"/>
+        <v>62</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="25"/>
-        <v>67</v>
+        <f t="shared" si="26"/>
+        <v>62</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="25"/>
-        <v>68</v>
+        <f t="shared" si="26"/>
+        <v>62</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="25"/>
-        <v>69</v>
+        <f t="shared" si="26"/>
+        <v>62</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="25"/>
-        <v>70</v>
+        <f t="shared" si="26"/>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C32" s="5"/>
       <c r="D32" s="8">
-        <f>D31+7</f>
-        <v>71</v>
+        <f t="shared" si="17"/>
+        <v>63</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" ref="E32:J32" si="26">D32+1</f>
-        <v>72</v>
+        <f t="shared" ref="E32:J32" si="27">D32</f>
+        <v>63</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="26"/>
-        <v>73</v>
+        <f t="shared" si="27"/>
+        <v>63</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="26"/>
-        <v>74</v>
+        <f t="shared" si="27"/>
+        <v>63</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="26"/>
-        <v>75</v>
+        <f t="shared" si="27"/>
+        <v>63</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="26"/>
-        <v>76</v>
+        <f t="shared" si="27"/>
+        <v>63</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="26"/>
-        <v>77</v>
+        <f t="shared" si="27"/>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D33" s="8">
         <f t="shared" si="17"/>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" ref="E33:J33" si="27">D33+1</f>
-        <v>79</v>
+        <f t="shared" ref="E33:J33" si="28">D33</f>
+        <v>64</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="27"/>
-        <v>80</v>
+        <f t="shared" si="28"/>
+        <v>64</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="27"/>
-        <v>81</v>
+        <f t="shared" si="28"/>
+        <v>64</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="27"/>
-        <v>82</v>
+        <f t="shared" si="28"/>
+        <v>64</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="27"/>
-        <v>83</v>
+        <f t="shared" si="28"/>
+        <v>64</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="27"/>
-        <v>84</v>
+        <f t="shared" si="28"/>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C34" s="5"/>
       <c r="D34" s="8">
         <f t="shared" si="17"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" ref="E34:J34" si="28">D34+1</f>
-        <v>86</v>
+        <f t="shared" ref="E34:J34" si="29">D34</f>
+        <v>65</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="28"/>
-        <v>87</v>
+        <f t="shared" si="29"/>
+        <v>65</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="28"/>
-        <v>88</v>
+        <f t="shared" si="29"/>
+        <v>65</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="28"/>
-        <v>89</v>
+        <f t="shared" si="29"/>
+        <v>65</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="28"/>
-        <v>90</v>
+        <f t="shared" si="29"/>
+        <v>65</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="28"/>
-        <v>91</v>
+        <f t="shared" si="29"/>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C35" s="5"/>
       <c r="D35" s="8">
-        <f>D34+7</f>
-        <v>92</v>
+        <f t="shared" si="17"/>
+        <v>66</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" ref="E35:J35" si="29">D35+1</f>
-        <v>93</v>
+        <f t="shared" ref="E35:J35" si="30">D35</f>
+        <v>66</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="29"/>
-        <v>94</v>
+        <f t="shared" si="30"/>
+        <v>66</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="29"/>
-        <v>95</v>
+        <f t="shared" si="30"/>
+        <v>66</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="29"/>
-        <v>96</v>
+        <f t="shared" si="30"/>
+        <v>66</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="29"/>
-        <v>97</v>
+        <f t="shared" si="30"/>
+        <v>66</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="29"/>
-        <v>98</v>
+        <f t="shared" si="30"/>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C36" s="5"/>
-      <c r="D36" s="8">
-        <f t="shared" si="17"/>
+      <c r="D36" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C37" s="5"/>
+      <c r="D37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C38" s="5"/>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <f>D38+1</f>
+        <v>2</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" ref="F38:J38" si="31">E38+1</f>
+        <v>3</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="J38" s="8">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C39" s="5"/>
+      <c r="D39" s="8">
+        <f>D38+7</f>
+        <v>8</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" ref="E39:J39" si="32">D39+1</f>
+        <v>9</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="32"/>
+        <v>12</v>
+      </c>
+      <c r="I39" s="8">
+        <f t="shared" si="32"/>
+        <v>13</v>
+      </c>
+      <c r="J39" s="8">
+        <f t="shared" si="32"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C40" s="5"/>
+      <c r="D40" s="8">
+        <f t="shared" ref="D40:D52" si="33">D39+7</f>
+        <v>15</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" ref="E40:J40" si="34">D40+1</f>
+        <v>16</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="34"/>
+        <v>17</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="34"/>
+        <v>18</v>
+      </c>
+      <c r="H40" s="8">
+        <f t="shared" si="34"/>
+        <v>19</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" si="34"/>
+        <v>20</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" si="34"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C41" s="5"/>
+      <c r="D41" s="8">
+        <f t="shared" si="33"/>
+        <v>22</v>
+      </c>
+      <c r="E41" s="8">
+        <f t="shared" ref="E41:J41" si="35">D41+1</f>
+        <v>23</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="35"/>
+        <v>24</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="35"/>
+        <v>25</v>
+      </c>
+      <c r="H41" s="8">
+        <f t="shared" si="35"/>
+        <v>26</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="35"/>
+        <v>27</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="35"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C42" s="5"/>
+      <c r="D42" s="8">
+        <f t="shared" si="33"/>
+        <v>29</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" ref="E42:J42" si="36">D42+1</f>
+        <v>30</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="36"/>
+        <v>31</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="36"/>
+        <v>32</v>
+      </c>
+      <c r="H42" s="8">
+        <f t="shared" si="36"/>
+        <v>33</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" si="36"/>
+        <v>34</v>
+      </c>
+      <c r="J42" s="8">
+        <f t="shared" si="36"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C43" s="5"/>
+      <c r="D43" s="8">
+        <f t="shared" si="33"/>
+        <v>36</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" ref="E43:J43" si="37">D43+1</f>
+        <v>37</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="37"/>
+        <v>38</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="37"/>
+        <v>39</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="37"/>
+        <v>40</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="37"/>
+        <v>41</v>
+      </c>
+      <c r="J43" s="8">
+        <f t="shared" si="37"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C44" s="5"/>
+      <c r="D44" s="8">
+        <f t="shared" si="33"/>
+        <v>43</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" ref="E44:J44" si="38">D44+1</f>
+        <v>44</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="38"/>
+        <v>45</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="38"/>
+        <v>46</v>
+      </c>
+      <c r="H44" s="8">
+        <f t="shared" si="38"/>
+        <v>47</v>
+      </c>
+      <c r="I44" s="8">
+        <f t="shared" si="38"/>
+        <v>48</v>
+      </c>
+      <c r="J44" s="8">
+        <f t="shared" si="38"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C45" s="5"/>
+      <c r="D45" s="8">
+        <f t="shared" si="33"/>
+        <v>50</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" ref="E45:J45" si="39">D45+1</f>
+        <v>51</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="39"/>
+        <v>52</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="39"/>
+        <v>53</v>
+      </c>
+      <c r="H45" s="8">
+        <f t="shared" si="39"/>
+        <v>54</v>
+      </c>
+      <c r="I45" s="8">
+        <f t="shared" si="39"/>
+        <v>55</v>
+      </c>
+      <c r="J45" s="8">
+        <f t="shared" si="39"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C46" s="5"/>
+      <c r="D46" s="8">
+        <f t="shared" si="33"/>
+        <v>57</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" ref="E46:J46" si="40">D46+1</f>
+        <v>58</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="40"/>
+        <v>59</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="40"/>
+        <v>60</v>
+      </c>
+      <c r="H46" s="8">
+        <f t="shared" si="40"/>
+        <v>61</v>
+      </c>
+      <c r="I46" s="8">
+        <f t="shared" si="40"/>
+        <v>62</v>
+      </c>
+      <c r="J46" s="8">
+        <f t="shared" si="40"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C47" s="5"/>
+      <c r="D47" s="8">
+        <f t="shared" si="33"/>
+        <v>64</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" ref="E47:J47" si="41">D47+1</f>
+        <v>65</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="41"/>
+        <v>66</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="41"/>
+        <v>67</v>
+      </c>
+      <c r="H47" s="8">
+        <f t="shared" si="41"/>
+        <v>68</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" si="41"/>
+        <v>69</v>
+      </c>
+      <c r="J47" s="8">
+        <f t="shared" si="41"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C48" s="5"/>
+      <c r="D48" s="8">
+        <f>D47+7</f>
+        <v>71</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" ref="E48:J48" si="42">D48+1</f>
+        <v>72</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="42"/>
+        <v>73</v>
+      </c>
+      <c r="G48" s="8">
+        <f t="shared" si="42"/>
+        <v>74</v>
+      </c>
+      <c r="H48" s="8">
+        <f t="shared" si="42"/>
+        <v>75</v>
+      </c>
+      <c r="I48" s="8">
+        <f t="shared" si="42"/>
+        <v>76</v>
+      </c>
+      <c r="J48" s="8">
+        <f t="shared" si="42"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C49" s="5"/>
+      <c r="D49" s="8">
+        <f t="shared" si="33"/>
+        <v>78</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" ref="E49:J49" si="43">D49+1</f>
+        <v>79</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="43"/>
+        <v>80</v>
+      </c>
+      <c r="G49" s="8">
+        <f t="shared" si="43"/>
+        <v>81</v>
+      </c>
+      <c r="H49" s="8">
+        <f t="shared" si="43"/>
+        <v>82</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" si="43"/>
+        <v>83</v>
+      </c>
+      <c r="J49" s="8">
+        <f t="shared" si="43"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C50" s="5"/>
+      <c r="D50" s="8">
+        <f t="shared" si="33"/>
+        <v>85</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" ref="E50:J50" si="44">D50+1</f>
+        <v>86</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="44"/>
+        <v>87</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" si="44"/>
+        <v>88</v>
+      </c>
+      <c r="H50" s="8">
+        <f t="shared" si="44"/>
+        <v>89</v>
+      </c>
+      <c r="I50" s="8">
+        <f t="shared" si="44"/>
+        <v>90</v>
+      </c>
+      <c r="J50" s="8">
+        <f t="shared" si="44"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C51" s="5"/>
+      <c r="D51" s="8">
+        <f>D50+7</f>
+        <v>92</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" ref="E51:J51" si="45">D51+1</f>
+        <v>93</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="45"/>
+        <v>94</v>
+      </c>
+      <c r="G51" s="8">
+        <f t="shared" si="45"/>
+        <v>95</v>
+      </c>
+      <c r="H51" s="8">
+        <f t="shared" si="45"/>
+        <v>96</v>
+      </c>
+      <c r="I51" s="8">
+        <f t="shared" si="45"/>
+        <v>97</v>
+      </c>
+      <c r="J51" s="8">
+        <f t="shared" si="45"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C52" s="5"/>
+      <c r="D52" s="8">
+        <f t="shared" si="33"/>
         <v>99</v>
       </c>
-      <c r="E36" s="8">
-        <f t="shared" ref="E36" si="30">D36+1</f>
+      <c r="E52" s="8">
+        <f t="shared" ref="E52" si="46">D52+1</f>
         <v>100</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="3:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="3:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="3:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="3:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="3:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="3:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="3:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="3:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="3:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D36:J36"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D8:J8"/>

--- a/atividades/Atividade01e02.xlsx
+++ b/atividades/Atividade01e02.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\atividade-senac\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A6CFB5-B835-4DA7-8B5F-948927F548FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="50" windowWidth="28800" windowHeight="20830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="45" windowWidth="28800" windowHeight="20835"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Grupo 1</t>
   </si>
@@ -76,9 +75,6 @@
     <t xml:space="preserve">CARLOS EDUARDO DA SILVA MULLER                        </t>
   </si>
   <si>
-    <t xml:space="preserve">DJONATA SERAIM                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">DOUGLAS BENTO DA SILVA                        </t>
   </si>
   <si>
@@ -167,12 +163,18 @@
   </si>
   <si>
     <t>Exercicios Atividade 02 - 100 Repeticao - 15-08-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRENO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJONATA SERAFIM                        </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,12 +243,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -362,9 +358,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -646,30 +639,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="6"/>
-    <col min="2" max="2" width="53.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
-    <col min="4" max="10" width="13.453125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="9.1796875" style="3"/>
-    <col min="13" max="13" width="14.81640625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="53.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="3" customWidth="1"/>
+    <col min="4" max="10" width="13.42578125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="12.42578125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="4"/>
       <c r="D1" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -679,7 +672,7 @@
       <c r="J1" s="17"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -710,7 +703,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <f>A2+1</f>
         <v>2</v>
@@ -748,12 +741,12 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <f>A3+1</f>
         <v>3</v>
@@ -797,7 +790,7 @@
       <c r="M4" s="13"/>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A24" si="2">A4+1</f>
         <v>4</v>
@@ -836,12 +829,12 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
     </row>
-    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -859,7 +852,9 @@
         <v>23</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8">
+        <v>25</v>
+      </c>
       <c r="H6" s="8">
         <v>24</v>
       </c>
@@ -867,61 +862,61 @@
       <c r="J6" s="8"/>
       <c r="K6" s="1"/>
       <c r="L6" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="22">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="8">
         <v>16</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="8">
         <v>3</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="8">
         <v>11</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="8">
         <v>24</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="8">
         <v>20</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="8">
         <v>7</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -931,18 +926,18 @@
       <c r="J8" s="16"/>
       <c r="K8" s="1"/>
       <c r="L8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="8" t="s">
@@ -968,18 +963,18 @@
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="8">
@@ -1010,13 +1005,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="8">
@@ -1048,13 +1043,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="8">
@@ -1086,13 +1081,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="8">
@@ -1124,13 +1119,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="8">
@@ -1162,13 +1157,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="8">
@@ -1200,13 +1195,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="8">
@@ -1238,13 +1233,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="8">
@@ -1261,17 +1256,17 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -1280,17 +1275,17 @@
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -1299,1107 +1294,655 @@
       <c r="I19" s="20"/>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="8">
-        <v>52</v>
-      </c>
-      <c r="E21" s="8">
-        <f>D21</f>
-        <v>52</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" ref="F21:J21" si="15">E21</f>
-        <v>52</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="15"/>
-        <v>52</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="15"/>
-        <v>52</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="15"/>
-        <v>52</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="15"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="8">
-        <f>D21+1</f>
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" ref="E22:J22" si="16">D22</f>
-        <v>53</v>
+        <f>D22+1</f>
+        <v>2</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="16"/>
-        <v>53</v>
+        <f t="shared" ref="F22:J22" si="15">E22+1</f>
+        <v>3</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="16"/>
-        <v>53</v>
+        <f t="shared" si="15"/>
+        <v>4</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="16"/>
-        <v>53</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="16"/>
-        <v>53</v>
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="16"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="8">
-        <f t="shared" ref="D23:D35" si="17">D22+1</f>
-        <v>54</v>
+        <f>D22+7</f>
+        <v>8</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" ref="E23:J23" si="18">D23</f>
-        <v>54</v>
+        <f t="shared" ref="E23:J23" si="16">D23+1</f>
+        <v>9</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="18"/>
-        <v>54</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="18"/>
-        <v>54</v>
+        <f t="shared" si="16"/>
+        <v>11</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="18"/>
-        <v>54</v>
+        <f t="shared" si="16"/>
+        <v>12</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="18"/>
-        <v>54</v>
+        <f t="shared" si="16"/>
+        <v>13</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="18"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="8">
-        <f t="shared" si="17"/>
-        <v>55</v>
+        <f t="shared" ref="D24:D36" si="17">D23+7</f>
+        <v>15</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" ref="E24:J24" si="19">D24</f>
-        <v>55</v>
+        <f t="shared" ref="E24:J24" si="18">D24+1</f>
+        <v>16</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="19"/>
-        <v>55</v>
+        <f t="shared" si="18"/>
+        <v>17</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="19"/>
-        <v>55</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="19"/>
-        <v>55</v>
+        <f t="shared" si="18"/>
+        <v>19</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="19"/>
-        <v>55</v>
+        <f t="shared" si="18"/>
+        <v>20</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="19"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="8">
         <f t="shared" si="17"/>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:J25" si="20">D25</f>
-        <v>56</v>
+        <f t="shared" ref="E25:J25" si="19">D25+1</f>
+        <v>23</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="20"/>
-        <v>56</v>
+        <f t="shared" si="19"/>
+        <v>24</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="20"/>
-        <v>56</v>
+        <f t="shared" si="19"/>
+        <v>25</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="20"/>
-        <v>56</v>
+        <f t="shared" si="19"/>
+        <v>26</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="20"/>
-        <v>56</v>
+        <f t="shared" si="19"/>
+        <v>27</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="20"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="9"/>
-      <c r="B26" s="5"/>
+        <f t="shared" si="19"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="8">
         <f t="shared" si="17"/>
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" ref="E26:J26" si="21">D26</f>
-        <v>57</v>
+        <f t="shared" ref="E26:J26" si="20">D26+1</f>
+        <v>30</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="21"/>
-        <v>57</v>
+        <f t="shared" si="20"/>
+        <v>31</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="21"/>
-        <v>57</v>
+        <f t="shared" si="20"/>
+        <v>32</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="21"/>
-        <v>57</v>
+        <f t="shared" si="20"/>
+        <v>33</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="21"/>
-        <v>57</v>
+        <f t="shared" si="20"/>
+        <v>34</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="21"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="20"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C27" s="5"/>
       <c r="D27" s="8">
         <f t="shared" si="17"/>
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" ref="E27:J27" si="22">D27</f>
-        <v>58</v>
+        <f t="shared" ref="E27:J27" si="21">D27+1</f>
+        <v>37</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="22"/>
-        <v>58</v>
+        <f t="shared" si="21"/>
+        <v>38</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="22"/>
-        <v>58</v>
+        <f t="shared" si="21"/>
+        <v>39</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="22"/>
-        <v>58</v>
+        <f t="shared" si="21"/>
+        <v>40</v>
       </c>
       <c r="I27" s="8">
-        <f t="shared" si="22"/>
-        <v>58</v>
+        <f t="shared" si="21"/>
+        <v>41</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="22"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="21"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C28" s="5"/>
       <c r="D28" s="8">
         <f t="shared" si="17"/>
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:J28" si="23">D28</f>
-        <v>59</v>
+        <f t="shared" ref="E28:J28" si="22">D28+1</f>
+        <v>44</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="23"/>
-        <v>59</v>
+        <f t="shared" si="22"/>
+        <v>45</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="23"/>
-        <v>59</v>
+        <f t="shared" si="22"/>
+        <v>46</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="23"/>
-        <v>59</v>
+        <f t="shared" si="22"/>
+        <v>47</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="23"/>
-        <v>59</v>
+        <f t="shared" si="22"/>
+        <v>48</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="23"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="22"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C29" s="5"/>
       <c r="D29" s="8">
         <f t="shared" si="17"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" ref="E29:J29" si="24">D29</f>
-        <v>60</v>
+        <f t="shared" ref="E29:J29" si="23">D29+1</f>
+        <v>51</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="24"/>
-        <v>60</v>
+        <f t="shared" si="23"/>
+        <v>52</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="24"/>
-        <v>60</v>
+        <f t="shared" si="23"/>
+        <v>53</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="24"/>
-        <v>60</v>
+        <f t="shared" si="23"/>
+        <v>54</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" si="24"/>
-        <v>60</v>
+        <f t="shared" si="23"/>
+        <v>55</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="24"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="23"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C30" s="5"/>
       <c r="D30" s="8">
         <f t="shared" si="17"/>
+        <v>57</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" ref="E30:J30" si="24">D30+1</f>
+        <v>58</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="24"/>
+        <v>59</v>
+      </c>
+      <c r="G30" s="8">
+        <f t="shared" si="24"/>
+        <v>60</v>
+      </c>
+      <c r="H30" s="8">
+        <f t="shared" si="24"/>
         <v>61</v>
       </c>
-      <c r="E30" s="8">
-        <f t="shared" ref="E30:J30" si="25">D30</f>
-        <v>61</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" si="25"/>
-        <v>61</v>
-      </c>
-      <c r="G30" s="8">
-        <f t="shared" si="25"/>
-        <v>61</v>
-      </c>
-      <c r="H30" s="8">
-        <f t="shared" si="25"/>
-        <v>61</v>
-      </c>
       <c r="I30" s="8">
-        <f t="shared" si="25"/>
-        <v>61</v>
+        <f t="shared" si="24"/>
+        <v>62</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="25"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="24"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C31" s="5"/>
       <c r="D31" s="8">
         <f t="shared" si="17"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E31" s="8">
-        <f t="shared" ref="E31:J31" si="26">D31</f>
-        <v>62</v>
+        <f t="shared" ref="E31:J31" si="25">D31+1</f>
+        <v>65</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="26"/>
-        <v>62</v>
+        <f t="shared" si="25"/>
+        <v>66</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="26"/>
-        <v>62</v>
+        <f t="shared" si="25"/>
+        <v>67</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="26"/>
-        <v>62</v>
+        <f t="shared" si="25"/>
+        <v>68</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" si="26"/>
-        <v>62</v>
+        <f t="shared" si="25"/>
+        <v>69</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="26"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C32" s="5"/>
       <c r="D32" s="8">
-        <f t="shared" si="17"/>
-        <v>63</v>
+        <f>D31+7</f>
+        <v>71</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" ref="E32:J32" si="27">D32</f>
-        <v>63</v>
+        <f t="shared" ref="E32:J32" si="26">D32+1</f>
+        <v>72</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="27"/>
-        <v>63</v>
+        <f t="shared" si="26"/>
+        <v>73</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="27"/>
-        <v>63</v>
+        <f t="shared" si="26"/>
+        <v>74</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="27"/>
-        <v>63</v>
+        <f t="shared" si="26"/>
+        <v>75</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="27"/>
-        <v>63</v>
+        <f t="shared" si="26"/>
+        <v>76</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="27"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="26"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D33" s="8">
         <f t="shared" si="17"/>
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E33" s="8">
-        <f t="shared" ref="E33:J33" si="28">D33</f>
-        <v>64</v>
+        <f t="shared" ref="E33:J33" si="27">D33+1</f>
+        <v>79</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="28"/>
-        <v>64</v>
+        <f t="shared" si="27"/>
+        <v>80</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="28"/>
-        <v>64</v>
+        <f t="shared" si="27"/>
+        <v>81</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="28"/>
-        <v>64</v>
+        <f t="shared" si="27"/>
+        <v>82</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" si="28"/>
-        <v>64</v>
+        <f t="shared" si="27"/>
+        <v>83</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="28"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="27"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C34" s="5"/>
       <c r="D34" s="8">
         <f t="shared" si="17"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" ref="E34:J34" si="29">D34</f>
-        <v>65</v>
+        <f t="shared" ref="E34:J34" si="28">D34+1</f>
+        <v>86</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="29"/>
-        <v>65</v>
+        <f t="shared" si="28"/>
+        <v>87</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="29"/>
-        <v>65</v>
+        <f t="shared" si="28"/>
+        <v>88</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="29"/>
-        <v>65</v>
+        <f t="shared" si="28"/>
+        <v>89</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="29"/>
-        <v>65</v>
+        <f t="shared" si="28"/>
+        <v>90</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="29"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="28"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C35" s="5"/>
       <c r="D35" s="8">
+        <f>D34+7</f>
+        <v>92</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" ref="E35:J35" si="29">D35+1</f>
+        <v>93</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="29"/>
+        <v>94</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="29"/>
+        <v>95</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="29"/>
+        <v>96</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="29"/>
+        <v>97</v>
+      </c>
+      <c r="J35" s="8">
+        <f t="shared" si="29"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C36" s="5"/>
+      <c r="D36" s="8">
         <f t="shared" si="17"/>
-        <v>66</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" ref="E35:J35" si="30">D35</f>
-        <v>66</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="30"/>
-        <v>66</v>
-      </c>
-      <c r="G35" s="8">
-        <f t="shared" si="30"/>
-        <v>66</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="30"/>
-        <v>66</v>
-      </c>
-      <c r="I35" s="8">
-        <f t="shared" si="30"/>
-        <v>66</v>
-      </c>
-      <c r="J35" s="8">
-        <f t="shared" si="30"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C36" s="5"/>
-      <c r="D36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="37" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" ref="E36" si="30">D36+1</f>
+        <v>100</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" s="5"/>
-      <c r="D37" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
-      <c r="D38" s="8">
-        <v>1</v>
-      </c>
-      <c r="E38" s="8">
-        <f>D38+1</f>
-        <v>2</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" ref="F38:J38" si="31">E38+1</f>
-        <v>3</v>
-      </c>
-      <c r="G38" s="8">
-        <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="H38" s="8">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="I38" s="8">
-        <f t="shared" si="31"/>
-        <v>6</v>
-      </c>
-      <c r="J38" s="8">
-        <f t="shared" si="31"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
-      <c r="D39" s="8">
-        <f>D38+7</f>
-        <v>8</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" ref="E39:J39" si="32">D39+1</f>
-        <v>9</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="32"/>
-        <v>10</v>
-      </c>
-      <c r="G39" s="8">
-        <f t="shared" si="32"/>
-        <v>11</v>
-      </c>
-      <c r="H39" s="8">
-        <f t="shared" si="32"/>
-        <v>12</v>
-      </c>
-      <c r="I39" s="8">
-        <f t="shared" si="32"/>
-        <v>13</v>
-      </c>
-      <c r="J39" s="8">
-        <f t="shared" si="32"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
-      <c r="D40" s="8">
-        <f t="shared" ref="D40:D52" si="33">D39+7</f>
-        <v>15</v>
-      </c>
-      <c r="E40" s="8">
-        <f t="shared" ref="E40:J40" si="34">D40+1</f>
-        <v>16</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="34"/>
-        <v>17</v>
-      </c>
-      <c r="G40" s="8">
-        <f t="shared" si="34"/>
-        <v>18</v>
-      </c>
-      <c r="H40" s="8">
-        <f t="shared" si="34"/>
-        <v>19</v>
-      </c>
-      <c r="I40" s="8">
-        <f t="shared" si="34"/>
-        <v>20</v>
-      </c>
-      <c r="J40" s="8">
-        <f t="shared" si="34"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
-      <c r="D41" s="8">
-        <f t="shared" si="33"/>
-        <v>22</v>
-      </c>
-      <c r="E41" s="8">
-        <f t="shared" ref="E41:J41" si="35">D41+1</f>
-        <v>23</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="35"/>
-        <v>24</v>
-      </c>
-      <c r="G41" s="8">
-        <f t="shared" si="35"/>
-        <v>25</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="35"/>
-        <v>26</v>
-      </c>
-      <c r="I41" s="8">
-        <f t="shared" si="35"/>
-        <v>27</v>
-      </c>
-      <c r="J41" s="8">
-        <f t="shared" si="35"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
-      <c r="D42" s="8">
-        <f t="shared" si="33"/>
-        <v>29</v>
-      </c>
-      <c r="E42" s="8">
-        <f t="shared" ref="E42:J42" si="36">D42+1</f>
-        <v>30</v>
-      </c>
-      <c r="F42" s="8">
-        <f t="shared" si="36"/>
-        <v>31</v>
-      </c>
-      <c r="G42" s="8">
-        <f t="shared" si="36"/>
-        <v>32</v>
-      </c>
-      <c r="H42" s="8">
-        <f t="shared" si="36"/>
-        <v>33</v>
-      </c>
-      <c r="I42" s="8">
-        <f t="shared" si="36"/>
-        <v>34</v>
-      </c>
-      <c r="J42" s="8">
-        <f t="shared" si="36"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="8">
-        <f t="shared" si="33"/>
-        <v>36</v>
-      </c>
-      <c r="E43" s="8">
-        <f t="shared" ref="E43:J43" si="37">D43+1</f>
-        <v>37</v>
-      </c>
-      <c r="F43" s="8">
-        <f t="shared" si="37"/>
-        <v>38</v>
-      </c>
-      <c r="G43" s="8">
-        <f t="shared" si="37"/>
-        <v>39</v>
-      </c>
-      <c r="H43" s="8">
-        <f t="shared" si="37"/>
-        <v>40</v>
-      </c>
-      <c r="I43" s="8">
-        <f t="shared" si="37"/>
-        <v>41</v>
-      </c>
-      <c r="J43" s="8">
-        <f t="shared" si="37"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
-      <c r="D44" s="8">
-        <f t="shared" si="33"/>
-        <v>43</v>
-      </c>
-      <c r="E44" s="8">
-        <f t="shared" ref="E44:J44" si="38">D44+1</f>
-        <v>44</v>
-      </c>
-      <c r="F44" s="8">
-        <f t="shared" si="38"/>
-        <v>45</v>
-      </c>
-      <c r="G44" s="8">
-        <f t="shared" si="38"/>
-        <v>46</v>
-      </c>
-      <c r="H44" s="8">
-        <f t="shared" si="38"/>
-        <v>47</v>
-      </c>
-      <c r="I44" s="8">
-        <f t="shared" si="38"/>
-        <v>48</v>
-      </c>
-      <c r="J44" s="8">
-        <f t="shared" si="38"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="8">
-        <f t="shared" si="33"/>
-        <v>50</v>
-      </c>
-      <c r="E45" s="8">
-        <f t="shared" ref="E45:J45" si="39">D45+1</f>
-        <v>51</v>
-      </c>
-      <c r="F45" s="8">
-        <f t="shared" si="39"/>
-        <v>52</v>
-      </c>
-      <c r="G45" s="8">
-        <f t="shared" si="39"/>
-        <v>53</v>
-      </c>
-      <c r="H45" s="8">
-        <f t="shared" si="39"/>
-        <v>54</v>
-      </c>
-      <c r="I45" s="8">
-        <f t="shared" si="39"/>
-        <v>55</v>
-      </c>
-      <c r="J45" s="8">
-        <f t="shared" si="39"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
-      <c r="D46" s="8">
-        <f t="shared" si="33"/>
-        <v>57</v>
-      </c>
-      <c r="E46" s="8">
-        <f t="shared" ref="E46:J46" si="40">D46+1</f>
-        <v>58</v>
-      </c>
-      <c r="F46" s="8">
-        <f t="shared" si="40"/>
-        <v>59</v>
-      </c>
-      <c r="G46" s="8">
-        <f t="shared" si="40"/>
-        <v>60</v>
-      </c>
-      <c r="H46" s="8">
-        <f t="shared" si="40"/>
-        <v>61</v>
-      </c>
-      <c r="I46" s="8">
-        <f t="shared" si="40"/>
-        <v>62</v>
-      </c>
-      <c r="J46" s="8">
-        <f t="shared" si="40"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="8">
-        <f t="shared" si="33"/>
-        <v>64</v>
-      </c>
-      <c r="E47" s="8">
-        <f t="shared" ref="E47:J47" si="41">D47+1</f>
-        <v>65</v>
-      </c>
-      <c r="F47" s="8">
-        <f t="shared" si="41"/>
-        <v>66</v>
-      </c>
-      <c r="G47" s="8">
-        <f t="shared" si="41"/>
-        <v>67</v>
-      </c>
-      <c r="H47" s="8">
-        <f t="shared" si="41"/>
-        <v>68</v>
-      </c>
-      <c r="I47" s="8">
-        <f t="shared" si="41"/>
-        <v>69</v>
-      </c>
-      <c r="J47" s="8">
-        <f t="shared" si="41"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
-      <c r="D48" s="8">
-        <f>D47+7</f>
-        <v>71</v>
-      </c>
-      <c r="E48" s="8">
-        <f t="shared" ref="E48:J48" si="42">D48+1</f>
-        <v>72</v>
-      </c>
-      <c r="F48" s="8">
-        <f t="shared" si="42"/>
-        <v>73</v>
-      </c>
-      <c r="G48" s="8">
-        <f t="shared" si="42"/>
-        <v>74</v>
-      </c>
-      <c r="H48" s="8">
-        <f t="shared" si="42"/>
-        <v>75</v>
-      </c>
-      <c r="I48" s="8">
-        <f t="shared" si="42"/>
-        <v>76</v>
-      </c>
-      <c r="J48" s="8">
-        <f t="shared" si="42"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C49" s="5"/>
-      <c r="D49" s="8">
-        <f t="shared" si="33"/>
-        <v>78</v>
-      </c>
-      <c r="E49" s="8">
-        <f t="shared" ref="E49:J49" si="43">D49+1</f>
-        <v>79</v>
-      </c>
-      <c r="F49" s="8">
-        <f t="shared" si="43"/>
-        <v>80</v>
-      </c>
-      <c r="G49" s="8">
-        <f t="shared" si="43"/>
-        <v>81</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="43"/>
-        <v>82</v>
-      </c>
-      <c r="I49" s="8">
-        <f t="shared" si="43"/>
-        <v>83</v>
-      </c>
-      <c r="J49" s="8">
-        <f t="shared" si="43"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" s="5"/>
-      <c r="D50" s="8">
-        <f t="shared" si="33"/>
-        <v>85</v>
-      </c>
-      <c r="E50" s="8">
-        <f t="shared" ref="E50:J50" si="44">D50+1</f>
-        <v>86</v>
-      </c>
-      <c r="F50" s="8">
-        <f t="shared" si="44"/>
-        <v>87</v>
-      </c>
-      <c r="G50" s="8">
-        <f t="shared" si="44"/>
-        <v>88</v>
-      </c>
-      <c r="H50" s="8">
-        <f t="shared" si="44"/>
-        <v>89</v>
-      </c>
-      <c r="I50" s="8">
-        <f t="shared" si="44"/>
-        <v>90</v>
-      </c>
-      <c r="J50" s="8">
-        <f t="shared" si="44"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
-      <c r="D51" s="8">
-        <f>D50+7</f>
-        <v>92</v>
-      </c>
-      <c r="E51" s="8">
-        <f t="shared" ref="E51:J51" si="45">D51+1</f>
-        <v>93</v>
-      </c>
-      <c r="F51" s="8">
-        <f t="shared" si="45"/>
-        <v>94</v>
-      </c>
-      <c r="G51" s="8">
-        <f t="shared" si="45"/>
-        <v>95</v>
-      </c>
-      <c r="H51" s="8">
-        <f t="shared" si="45"/>
-        <v>96</v>
-      </c>
-      <c r="I51" s="8">
-        <f t="shared" si="45"/>
-        <v>97</v>
-      </c>
-      <c r="J51" s="8">
-        <f t="shared" si="45"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C52" s="5"/>
-      <c r="D52" s="8">
-        <f t="shared" si="33"/>
-        <v>99</v>
-      </c>
-      <c r="E52" s="8">
-        <f t="shared" ref="E52" si="46">D52+1</f>
-        <v>100</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="4:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D20:J20"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D8:J8"/>

--- a/atividades/Atividade01e02.xlsx
+++ b/atividades/Atividade01e02.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\atividade-senac\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2A6338-D8E1-42F5-96B2-E9499A6AF932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="45" windowWidth="28800" windowHeight="20835"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="43200" windowHeight="23325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Grupo 1</t>
   </si>
@@ -162,20 +163,23 @@
     <t>Exercicios Atividade 01 - Repeticao - 11-08-2022</t>
   </si>
   <si>
-    <t>Exercicios Atividade 02 - 100 Repeticao - 15-08-2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRENO </t>
   </si>
   <si>
     <t xml:space="preserve">DJONATA SERAFIM                        </t>
+  </si>
+  <si>
+    <t>https://atividades-senac-gelvazio.vercel.app/atividade02.html</t>
+  </si>
+  <si>
+    <t>Exercicios Atividade 02 - 15-08-2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +226,37 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,10 +343,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -351,17 +387,40 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,11 +698,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,8 +710,9 @@
     <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="53.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="3" customWidth="1"/>
-    <col min="4" max="10" width="13.42578125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="3"/>
+    <col min="4" max="10" width="18.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="90.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
     <col min="13" max="13" width="12.42578125" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -873,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>35</v>
@@ -1233,7 +1293,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1256,7 +1316,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1275,7 +1335,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1284,17 +1344,17 @@
         <v>23</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1303,17 +1363,18 @@
         <v>24</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D20" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1322,29 +1383,17 @@
         <v>25</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D21" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1353,35 +1402,29 @@
         <v>26</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="8">
+      <c r="D22" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="8">
-        <f>D22+1</f>
-        <v>2</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" ref="F22:J22" si="15">E22+1</f>
-        <v>3</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J22" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1390,36 +1433,35 @@
         <v>27</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="8">
-        <f>D22+7</f>
-        <v>8</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" ref="E23:J23" si="16">D23+1</f>
-        <v>9</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="16"/>
-        <v>12</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="16"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D23" s="23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23">
+        <f>D23+1</f>
+        <v>2</v>
+      </c>
+      <c r="F23" s="23">
+        <f t="shared" ref="F23:J23" si="15">E23+1</f>
+        <v>3</v>
+      </c>
+      <c r="G23" s="23">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="H23" s="23">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="23">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="J23" s="23">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1428,409 +1470,343 @@
         <v>28</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="8">
-        <f t="shared" ref="D24:D36" si="17">D23+7</f>
+      <c r="D24" s="23">
+        <f>D23+7</f>
+        <v>8</v>
+      </c>
+      <c r="E24" s="23">
+        <f t="shared" ref="E24:J24" si="16">D24+1</f>
+        <v>9</v>
+      </c>
+      <c r="F24" s="23">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="G24" s="23">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="H24" s="23">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="I24" s="23">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="J24" s="23">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="23">
+        <f t="shared" ref="D25:D32" si="17">D24+7</f>
         <v>15</v>
       </c>
-      <c r="E24" s="8">
-        <f t="shared" ref="E24:J24" si="18">D24+1</f>
+      <c r="E25" s="23">
+        <f t="shared" ref="E25:J25" si="18">D25+1</f>
         <v>16</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F25" s="23">
         <f t="shared" si="18"/>
         <v>17</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="23">
         <f t="shared" si="18"/>
         <v>18</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="23">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I25" s="23">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J25" s="23">
         <f t="shared" si="18"/>
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="8">
+    <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="23">
         <f t="shared" si="17"/>
         <v>22</v>
       </c>
-      <c r="E25" s="8">
-        <f t="shared" ref="E25:J25" si="19">D25+1</f>
+      <c r="E26" s="23">
+        <f t="shared" ref="E26:J26" si="19">D26+1</f>
         <v>23</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F26" s="23">
         <f t="shared" si="19"/>
         <v>24</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="23">
         <f t="shared" si="19"/>
         <v>25</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H26" s="23">
         <f t="shared" si="19"/>
         <v>26</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I26" s="23">
         <f t="shared" si="19"/>
         <v>27</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J26" s="23">
         <f t="shared" si="19"/>
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="8">
+    <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C27" s="5"/>
+      <c r="D27" s="23">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
-      <c r="E26" s="8">
-        <f t="shared" ref="E26:J26" si="20">D26+1</f>
+      <c r="E27" s="23">
+        <f t="shared" ref="E27:J27" si="20">D27+1</f>
         <v>30</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F27" s="23">
         <f t="shared" si="20"/>
         <v>31</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="23">
         <f t="shared" si="20"/>
         <v>32</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H27" s="23">
         <f t="shared" si="20"/>
         <v>33</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I27" s="23">
         <f t="shared" si="20"/>
         <v>34</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J27" s="23">
         <f t="shared" si="20"/>
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C27" s="5"/>
-      <c r="D27" s="8">
+    <row r="28" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C28" s="5"/>
+      <c r="D28" s="23">
         <f t="shared" si="17"/>
         <v>36</v>
       </c>
-      <c r="E27" s="8">
-        <f t="shared" ref="E27:J27" si="21">D27+1</f>
+      <c r="E28" s="23">
+        <f t="shared" ref="E28:J28" si="21">D28+1</f>
         <v>37</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F28" s="23">
         <f t="shared" si="21"/>
         <v>38</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="23">
         <f t="shared" si="21"/>
         <v>39</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H28" s="23">
         <f t="shared" si="21"/>
         <v>40</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I28" s="23">
         <f t="shared" si="21"/>
         <v>41</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J28" s="23">
         <f t="shared" si="21"/>
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C28" s="5"/>
-      <c r="D28" s="8">
+    <row r="29" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C29" s="5"/>
+      <c r="D29" s="23">
         <f t="shared" si="17"/>
         <v>43</v>
       </c>
-      <c r="E28" s="8">
-        <f t="shared" ref="E28:J28" si="22">D28+1</f>
+      <c r="E29" s="23">
+        <f t="shared" ref="E29:J29" si="22">D29+1</f>
         <v>44</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F29" s="23">
         <f t="shared" si="22"/>
         <v>45</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G29" s="23">
         <f t="shared" si="22"/>
         <v>46</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H29" s="23">
         <f t="shared" si="22"/>
         <v>47</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I29" s="23">
         <f t="shared" si="22"/>
         <v>48</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J29" s="23">
         <f t="shared" si="22"/>
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C29" s="5"/>
-      <c r="D29" s="8">
+    <row r="30" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C30" s="5"/>
+      <c r="D30" s="23">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="E29" s="8">
-        <f t="shared" ref="E29:J29" si="23">D29+1</f>
+      <c r="E30" s="23">
+        <f t="shared" ref="E30:J30" si="23">D30+1</f>
         <v>51</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F30" s="23">
         <f t="shared" si="23"/>
         <v>52</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="23">
         <f t="shared" si="23"/>
         <v>53</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H30" s="23">
         <f t="shared" si="23"/>
         <v>54</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I30" s="23">
         <f t="shared" si="23"/>
         <v>55</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J30" s="23">
         <f t="shared" si="23"/>
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C30" s="5"/>
-      <c r="D30" s="8">
+    <row r="31" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C31" s="5"/>
+      <c r="D31" s="23">
         <f t="shared" si="17"/>
         <v>57</v>
       </c>
-      <c r="E30" s="8">
-        <f t="shared" ref="E30:J30" si="24">D30+1</f>
+      <c r="E31" s="23">
+        <f t="shared" ref="E31:J31" si="24">D31+1</f>
         <v>58</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="23">
         <f t="shared" si="24"/>
         <v>59</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G31" s="23">
         <f t="shared" si="24"/>
         <v>60</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H31" s="23">
         <f t="shared" si="24"/>
         <v>61</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I31" s="23">
         <f t="shared" si="24"/>
         <v>62</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J31" s="23">
         <f t="shared" si="24"/>
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C31" s="5"/>
-      <c r="D31" s="8">
+    <row r="32" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C32" s="5"/>
+      <c r="D32" s="23">
         <f t="shared" si="17"/>
         <v>64</v>
       </c>
-      <c r="E31" s="8">
-        <f t="shared" ref="E31:J31" si="25">D31+1</f>
+      <c r="E32" s="23">
+        <f t="shared" ref="E32:J32" si="25">D32+1</f>
         <v>65</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F32" s="23">
         <f t="shared" si="25"/>
         <v>66</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="23">
         <f t="shared" si="25"/>
         <v>67</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H32" s="23">
         <f t="shared" si="25"/>
         <v>68</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I32" s="23">
         <f t="shared" si="25"/>
         <v>69</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J32" s="23">
         <f t="shared" si="25"/>
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C32" s="5"/>
-      <c r="D32" s="8">
-        <f>D31+7</f>
-        <v>71</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" ref="E32:J32" si="26">D32+1</f>
-        <v>72</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="26"/>
-        <v>73</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" si="26"/>
-        <v>74</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="26"/>
-        <v>75</v>
-      </c>
-      <c r="I32" s="8">
-        <f t="shared" si="26"/>
-        <v>76</v>
-      </c>
-      <c r="J32" s="8">
-        <f t="shared" si="26"/>
-        <v>77</v>
-      </c>
-    </row>
     <row r="33" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D33" s="8">
-        <f t="shared" si="17"/>
-        <v>78</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" ref="E33:J33" si="27">D33+1</f>
-        <v>79</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="27"/>
-        <v>80</v>
-      </c>
-      <c r="G33" s="8">
-        <f t="shared" si="27"/>
-        <v>81</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="27"/>
-        <v>82</v>
-      </c>
-      <c r="I33" s="8">
-        <f t="shared" si="27"/>
-        <v>83</v>
-      </c>
-      <c r="J33" s="8">
-        <f t="shared" si="27"/>
-        <v>84</v>
-      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C34" s="5"/>
-      <c r="D34" s="8">
-        <f t="shared" si="17"/>
-        <v>85</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" ref="E34:J34" si="28">D34+1</f>
-        <v>86</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="28"/>
-        <v>87</v>
-      </c>
-      <c r="G34" s="8">
-        <f t="shared" si="28"/>
-        <v>88</v>
-      </c>
-      <c r="H34" s="8">
-        <f t="shared" si="28"/>
-        <v>89</v>
-      </c>
-      <c r="I34" s="8">
-        <f t="shared" si="28"/>
-        <v>90</v>
-      </c>
-      <c r="J34" s="8">
-        <f t="shared" si="28"/>
-        <v>91</v>
-      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C35" s="5"/>
-      <c r="D35" s="8">
-        <f>D34+7</f>
-        <v>92</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" ref="E35:J35" si="29">D35+1</f>
-        <v>93</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="29"/>
-        <v>94</v>
-      </c>
-      <c r="G35" s="8">
-        <f t="shared" si="29"/>
-        <v>95</v>
-      </c>
-      <c r="H35" s="8">
-        <f t="shared" si="29"/>
-        <v>96</v>
-      </c>
-      <c r="I35" s="8">
-        <f t="shared" si="29"/>
-        <v>97</v>
-      </c>
-      <c r="J35" s="8">
-        <f t="shared" si="29"/>
-        <v>98</v>
-      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C36" s="5"/>
-      <c r="D36" s="8">
-        <f t="shared" si="17"/>
-        <v>99</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" ref="E36" si="30">D36+1</f>
-        <v>100</v>
-      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
@@ -1918,6 +1894,10 @@
     </row>
     <row r="50" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C51" s="5"/>
@@ -1941,7 +1921,8 @@
       <c r="C57" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="D21:J21"/>
     <mergeCell ref="D20:J20"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="A1:B1"/>

--- a/atividades/Atividade01e02.xlsx
+++ b/atividades/Atividade01e02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\atividade-senac\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2A6338-D8E1-42F5-96B2-E9499A6AF932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D827826A-7C45-4881-AB9E-CC4BD341FEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="43200" windowHeight="23325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="2835" windowWidth="51030" windowHeight="23325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Grupo 1</t>
   </si>
@@ -173,13 +173,19 @@
   </si>
   <si>
     <t>Exercicios Atividade 02 - 15-08-2022</t>
+  </si>
+  <si>
+    <t>Grupos</t>
+  </si>
+  <si>
+    <t>GRUPOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +263,30 @@
       <b/>
       <sz val="22"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -372,6 +402,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,13 +439,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,26 +448,45 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -699,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,28 +781,29 @@
     <col min="2" max="2" width="53.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="3" customWidth="1"/>
     <col min="4" max="10" width="18.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="90.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="12.42578125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="11" max="11" width="36.28515625" style="40" customWidth="1"/>
+    <col min="12" max="15" width="36.28515625" style="3" customWidth="1"/>
+    <col min="16" max="18" width="27.5703125" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -761,9 +832,10 @@
       <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="K2" s="35"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <f>A2+1</f>
         <v>2</v>
@@ -799,14 +871,15 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <f>A3+1</f>
         <v>3</v>
@@ -843,14 +916,15 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="12" t="s">
+      <c r="K4" s="36"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="N4" s="13"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <f t="shared" ref="A5:A24" si="2">A4+1</f>
         <v>4</v>
@@ -887,14 +961,15 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="11" t="s">
+      <c r="K5" s="36"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="11"/>
       <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -920,14 +995,15 @@
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="11" t="s">
+      <c r="K6" s="36"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -959,14 +1035,15 @@
       <c r="J7" s="8">
         <v>7</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="36"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -975,23 +1052,24 @@
         <v>13</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="11" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1021,14 +1099,15 @@
       <c r="J9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11" t="s">
+      <c r="K9" s="36"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1064,8 +1143,9 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1102,8 +1182,9 @@
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1140,8 +1221,9 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1178,8 +1260,9 @@
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1216,8 +1299,9 @@
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1254,8 +1338,9 @@
         <f t="shared" si="12"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1292,8 +1377,9 @@
         <f t="shared" si="13"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1315,8 +1401,9 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K17" s="35"/>
+    </row>
+    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1325,17 +1412,21 @@
         <v>22</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1344,17 +1435,18 @@
         <v>23</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1363,18 +1455,19 @@
         <v>24</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1383,17 +1476,18 @@
         <v>25</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1402,29 +1496,30 @@
         <v>26</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1433,35 +1528,42 @@
         <v>27</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="23">
+      <c r="D23" s="15">
         <v>1</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="15">
         <f>D23+1</f>
         <v>2</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="15">
         <f t="shared" ref="F23:J23" si="15">E23+1</f>
         <v>3</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="15">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="15">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="15">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="15">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K23" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="43"/>
+    </row>
+    <row r="24" spans="1:15" ht="42" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1470,36 +1572,55 @@
         <v>28</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="23">
+      <c r="D24" s="15">
         <f>D23+7</f>
         <v>8</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="15">
         <f t="shared" ref="E24:J24" si="16">D24+1</f>
         <v>9</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="15">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="15">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="15">
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="15">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="15">
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K24" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="31" t="str">
+        <f>B2</f>
+        <v xml:space="preserve">ALEXSANDRO DIEGO SEMPKOWSKI DE ABREU                        </v>
+      </c>
+      <c r="M24" s="31" t="str">
+        <f>B9</f>
+        <v xml:space="preserve">DOUGLAS REGIS HAMMES                        </v>
+      </c>
+      <c r="N24" s="31" t="str">
+        <f>B16</f>
+        <v xml:space="preserve">KAUÃ DA SILVA SILVEIRA                        </v>
+      </c>
+      <c r="O24" s="31" t="str">
+        <f>B23</f>
+        <v xml:space="preserve">RICK JANES MATOS DIAS                        </v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="42" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1507,36 +1628,55 @@
         <v>36</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="23">
+      <c r="D25" s="15">
         <f t="shared" ref="D25:D32" si="17">D24+7</f>
         <v>15</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="15">
         <f t="shared" ref="E25:J25" si="18">D25+1</f>
         <v>16</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="15">
         <f t="shared" si="18"/>
         <v>17</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="15">
         <f t="shared" si="18"/>
         <v>18</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="15">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="15">
         <f t="shared" si="18"/>
         <v>20</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="15">
         <f t="shared" si="18"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K25" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="31" t="str">
+        <f>B3</f>
+        <v xml:space="preserve">AMANDA DA ROSA BOEHRINGER ELLER                        </v>
+      </c>
+      <c r="M25" s="31" t="str">
+        <f t="shared" ref="M25:M29" si="19">B10</f>
+        <v xml:space="preserve">EDUARDO CORREA                        </v>
+      </c>
+      <c r="N25" s="31" t="str">
+        <f t="shared" ref="N25:N29" si="20">B17</f>
+        <v xml:space="preserve">KAUE CASTANHEIRO GRAHL                        </v>
+      </c>
+      <c r="O25" s="31" t="str">
+        <f t="shared" ref="O25:O28" si="21">B24</f>
+        <v xml:space="preserve">VICTOR CESAR MACHADO                        </v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="42" x14ac:dyDescent="0.45">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -1544,222 +1684,309 @@
         <v>42</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="23">
+      <c r="D26" s="15">
         <f t="shared" si="17"/>
         <v>22</v>
       </c>
-      <c r="E26" s="23">
-        <f t="shared" ref="E26:J26" si="19">D26+1</f>
+      <c r="E26" s="15">
+        <f t="shared" ref="E26:J26" si="22">D26+1</f>
         <v>23</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="15">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="22"/>
+        <v>25</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="22"/>
+        <v>27</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="31" t="str">
+        <f t="shared" ref="L26:L27" si="23">B4</f>
+        <v xml:space="preserve">BRUNO EDUARDO BURGER                        </v>
+      </c>
+      <c r="M26" s="31" t="str">
         <f t="shared" si="19"/>
-        <v>24</v>
-      </c>
-      <c r="G26" s="23">
-        <f t="shared" si="19"/>
-        <v>25</v>
-      </c>
-      <c r="H26" s="23">
-        <f t="shared" si="19"/>
-        <v>26</v>
-      </c>
-      <c r="I26" s="23">
-        <f t="shared" si="19"/>
-        <v>27</v>
-      </c>
-      <c r="J26" s="23">
-        <f t="shared" si="19"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">FILLIPE GABRIEL HILLESHEIM SANTOS                        </v>
+      </c>
+      <c r="N26" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">LARISSA KOBALL ALVES                        </v>
+      </c>
+      <c r="O26" s="31"/>
+    </row>
+    <row r="27" spans="1:15" ht="42" x14ac:dyDescent="0.45">
       <c r="C27" s="5"/>
-      <c r="D27" s="23">
+      <c r="D27" s="15">
         <f t="shared" si="17"/>
         <v>29</v>
       </c>
-      <c r="E27" s="23">
-        <f t="shared" ref="E27:J27" si="20">D27+1</f>
+      <c r="E27" s="15">
+        <f t="shared" ref="E27:J27" si="24">D27+1</f>
         <v>30</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="15">
+        <f t="shared" si="24"/>
+        <v>31</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="24"/>
+        <v>32</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="24"/>
+        <v>33</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="24"/>
+        <v>34</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="24"/>
+        <v>35</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="31" t="str">
+        <f>B5</f>
+        <v xml:space="preserve">BRUNO OSVALDO SASSE                        </v>
+      </c>
+      <c r="M27" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">GLEISON SCHLEMPER VIEIRA DA SILVA                        </v>
+      </c>
+      <c r="N27" s="31" t="str">
         <f t="shared" si="20"/>
-        <v>31</v>
-      </c>
-      <c r="G27" s="23">
-        <f t="shared" si="20"/>
-        <v>32</v>
-      </c>
-      <c r="H27" s="23">
-        <f t="shared" si="20"/>
-        <v>33</v>
-      </c>
-      <c r="I27" s="23">
-        <f t="shared" si="20"/>
-        <v>34</v>
-      </c>
-      <c r="J27" s="23">
-        <f t="shared" si="20"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+        <v xml:space="preserve">LEANDRO MELO                        </v>
+      </c>
+      <c r="O27" s="31" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">BRENO </v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="42" x14ac:dyDescent="0.45">
       <c r="C28" s="5"/>
-      <c r="D28" s="23">
+      <c r="D28" s="15">
         <f t="shared" si="17"/>
         <v>36</v>
       </c>
-      <c r="E28" s="23">
-        <f t="shared" ref="E28:J28" si="21">D28+1</f>
+      <c r="E28" s="15">
+        <f t="shared" ref="E28:J28" si="25">D28+1</f>
         <v>37</v>
       </c>
-      <c r="F28" s="23">
-        <f t="shared" si="21"/>
+      <c r="F28" s="15">
+        <f t="shared" si="25"/>
         <v>38</v>
       </c>
-      <c r="G28" s="23">
-        <f t="shared" si="21"/>
+      <c r="G28" s="15">
+        <f t="shared" si="25"/>
         <v>39</v>
       </c>
-      <c r="H28" s="23">
-        <f t="shared" si="21"/>
+      <c r="H28" s="15">
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
-      <c r="I28" s="23">
-        <f t="shared" si="21"/>
+      <c r="I28" s="15">
+        <f t="shared" si="25"/>
         <v>41</v>
       </c>
-      <c r="J28" s="23">
-        <f t="shared" si="21"/>
+      <c r="J28" s="15">
+        <f t="shared" si="25"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K28" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="31" t="str">
+        <f>B6</f>
+        <v xml:space="preserve">CARLOS EDUARDO DA SILVA MULLER                        </v>
+      </c>
+      <c r="M28" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">GUILHERME SCHRODER                        </v>
+      </c>
+      <c r="N28" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">LETÍCIA DOS SANTOS                        </v>
+      </c>
+      <c r="O28" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="42" x14ac:dyDescent="0.45">
       <c r="C29" s="5"/>
-      <c r="D29" s="23">
+      <c r="D29" s="15">
         <f t="shared" si="17"/>
         <v>43</v>
       </c>
-      <c r="E29" s="23">
-        <f t="shared" ref="E29:J29" si="22">D29+1</f>
+      <c r="E29" s="15">
+        <f t="shared" ref="E29:J29" si="26">D29+1</f>
         <v>44</v>
       </c>
-      <c r="F29" s="23">
-        <f t="shared" si="22"/>
+      <c r="F29" s="15">
+        <f t="shared" si="26"/>
         <v>45</v>
       </c>
-      <c r="G29" s="23">
-        <f t="shared" si="22"/>
+      <c r="G29" s="15">
+        <f t="shared" si="26"/>
         <v>46</v>
       </c>
-      <c r="H29" s="23">
-        <f t="shared" si="22"/>
+      <c r="H29" s="15">
+        <f t="shared" si="26"/>
         <v>47</v>
       </c>
-      <c r="I29" s="23">
-        <f t="shared" si="22"/>
+      <c r="I29" s="15">
+        <f t="shared" si="26"/>
         <v>48</v>
       </c>
-      <c r="J29" s="23">
-        <f t="shared" si="22"/>
+      <c r="J29" s="15">
+        <f t="shared" si="26"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K29" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="31" t="str">
+        <f>B7</f>
+        <v xml:space="preserve">DJONATA SERAFIM                        </v>
+      </c>
+      <c r="M29" s="31" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">GUILHERME STEIN ZUNINO SGROTT                        </v>
+      </c>
+      <c r="N29" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">MATHEUS BENEDITO SCHRAMM                        </v>
+      </c>
+      <c r="O29" s="31"/>
+    </row>
+    <row r="30" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C30" s="5"/>
-      <c r="D30" s="23">
+      <c r="D30" s="15">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="E30" s="23">
-        <f t="shared" ref="E30:J30" si="23">D30+1</f>
+      <c r="E30" s="15">
+        <f t="shared" ref="E30:J30" si="27">D30+1</f>
         <v>51</v>
       </c>
-      <c r="F30" s="23">
-        <f t="shared" si="23"/>
+      <c r="F30" s="15">
+        <f t="shared" si="27"/>
         <v>52</v>
       </c>
-      <c r="G30" s="23">
-        <f t="shared" si="23"/>
+      <c r="G30" s="15">
+        <f t="shared" si="27"/>
         <v>53</v>
       </c>
-      <c r="H30" s="23">
-        <f t="shared" si="23"/>
+      <c r="H30" s="15">
+        <f t="shared" si="27"/>
         <v>54</v>
       </c>
-      <c r="I30" s="23">
-        <f t="shared" si="23"/>
+      <c r="I30" s="15">
+        <f t="shared" si="27"/>
         <v>55</v>
       </c>
-      <c r="J30" s="23">
-        <f t="shared" si="23"/>
+      <c r="J30" s="15">
+        <f t="shared" si="27"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K30" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="31" t="str">
+        <f>B8</f>
+        <v xml:space="preserve">DOUGLAS BENTO DA SILVA                        </v>
+      </c>
+      <c r="M30" s="31" t="str">
+        <f t="shared" ref="M30" si="28">B15</f>
+        <v xml:space="preserve">ISAAC HILLESHEIM LEDER                        </v>
+      </c>
+      <c r="N30" s="31" t="str">
+        <f t="shared" ref="N30" si="29">B22</f>
+        <v xml:space="preserve">RAÍSSA LINO CORREA                        </v>
+      </c>
+      <c r="O30" s="31"/>
+    </row>
+    <row r="31" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C31" s="5"/>
-      <c r="D31" s="23">
+      <c r="D31" s="15">
         <f t="shared" si="17"/>
         <v>57</v>
       </c>
-      <c r="E31" s="23">
-        <f t="shared" ref="E31:J31" si="24">D31+1</f>
+      <c r="E31" s="15">
+        <f t="shared" ref="E31:J31" si="30">D31+1</f>
         <v>58</v>
       </c>
-      <c r="F31" s="23">
-        <f t="shared" si="24"/>
+      <c r="F31" s="15">
+        <f t="shared" si="30"/>
         <v>59</v>
       </c>
-      <c r="G31" s="23">
-        <f t="shared" si="24"/>
+      <c r="G31" s="15">
+        <f t="shared" si="30"/>
         <v>60</v>
       </c>
-      <c r="H31" s="23">
-        <f t="shared" si="24"/>
+      <c r="H31" s="15">
+        <f t="shared" si="30"/>
         <v>61</v>
       </c>
-      <c r="I31" s="23">
-        <f t="shared" si="24"/>
+      <c r="I31" s="15">
+        <f t="shared" si="30"/>
         <v>62</v>
       </c>
-      <c r="J31" s="23">
-        <f t="shared" si="24"/>
+      <c r="J31" s="15">
+        <f t="shared" si="30"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="K31" s="38"/>
+    </row>
+    <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C32" s="5"/>
-      <c r="D32" s="23">
+      <c r="D32" s="15">
         <f t="shared" si="17"/>
         <v>64</v>
       </c>
-      <c r="E32" s="23">
-        <f t="shared" ref="E32:J32" si="25">D32+1</f>
+      <c r="E32" s="15">
+        <f t="shared" ref="E32:J32" si="31">D32+1</f>
         <v>65</v>
       </c>
-      <c r="F32" s="23">
-        <f t="shared" si="25"/>
+      <c r="F32" s="15">
+        <f t="shared" si="31"/>
         <v>66</v>
       </c>
-      <c r="G32" s="23">
-        <f t="shared" si="25"/>
+      <c r="G32" s="15">
+        <f t="shared" si="31"/>
         <v>67</v>
       </c>
-      <c r="H32" s="23">
-        <f t="shared" si="25"/>
+      <c r="H32" s="15">
+        <f t="shared" si="31"/>
         <v>68</v>
       </c>
-      <c r="I32" s="23">
-        <f t="shared" si="25"/>
+      <c r="I32" s="15">
+        <f t="shared" si="31"/>
         <v>69</v>
       </c>
-      <c r="J32" s="23">
-        <f t="shared" si="25"/>
+      <c r="J32" s="15">
+        <f t="shared" si="31"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K32" s="38"/>
+    </row>
+    <row r="33" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -1767,8 +1994,9 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K33" s="35"/>
+    </row>
+    <row r="34" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C34" s="5"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1777,8 +2005,9 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K34" s="35"/>
+    </row>
+    <row r="35" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C35" s="5"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1787,8 +2016,9 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K35" s="35"/>
+    </row>
+    <row r="36" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C36" s="5"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1797,8 +2027,9 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K36" s="35"/>
+    </row>
+    <row r="37" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C37" s="5"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1807,78 +2038,79 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K37" s="35"/>
+    </row>
+    <row r="38" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1921,7 +2153,8 @@
       <c r="C57" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="K23:O23"/>
     <mergeCell ref="D21:J21"/>
     <mergeCell ref="D20:J20"/>
     <mergeCell ref="D1:J1"/>

--- a/atividades/Atividade01e02.xlsx
+++ b/atividades/Atividade01e02.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\atividade-senac\atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D827826A-7C45-4881-AB9E-CC4BD341FEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="2835" windowWidth="51030" windowHeight="23325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="2835" windowWidth="51030" windowHeight="23325"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,48 +405,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,6 +444,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -768,11 +767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,26 +780,26 @@
     <col min="2" max="2" width="53.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="3" customWidth="1"/>
     <col min="4" max="10" width="18.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" style="40" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" style="26" customWidth="1"/>
     <col min="12" max="15" width="36.28515625" style="3" customWidth="1"/>
     <col min="16" max="18" width="27.5703125" style="3" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="34"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.35">
@@ -832,7 +831,7 @@
       <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="35"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.35">
@@ -871,7 +870,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="1"/>
       <c r="M3" s="11" t="s">
         <v>30</v>
@@ -916,7 +915,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K4" s="36"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="1"/>
       <c r="M4" s="12" t="s">
         <v>11</v>
@@ -961,7 +960,7 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="1"/>
       <c r="M5" s="11" t="s">
         <v>37</v>
@@ -995,7 +994,7 @@
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="36"/>
+      <c r="K6" s="22"/>
       <c r="L6" s="1"/>
       <c r="M6" s="11" t="s">
         <v>38</v>
@@ -1035,7 +1034,7 @@
       <c r="J7" s="8">
         <v>7</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="1"/>
       <c r="M7" s="11" t="s">
         <v>32</v>
@@ -1052,16 +1051,16 @@
         <v>13</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="37"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="1"/>
       <c r="M8" s="11" t="s">
         <v>33</v>
@@ -1099,7 +1098,7 @@
       <c r="J9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="36"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11" t="s">
         <v>34</v>
@@ -1143,7 +1142,7 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="K10" s="35"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -1182,7 +1181,7 @@
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="K11" s="35"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -1221,7 +1220,7 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="K12" s="35"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -1260,7 +1259,7 @@
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="K13" s="35"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -1299,7 +1298,7 @@
         <f t="shared" si="11"/>
         <v>35</v>
       </c>
-      <c r="K14" s="35"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
@@ -1338,7 +1337,7 @@
         <f t="shared" si="12"/>
         <v>42</v>
       </c>
-      <c r="K15" s="35"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
@@ -1377,7 +1376,7 @@
         <f t="shared" si="13"/>
         <v>49</v>
       </c>
-      <c r="K16" s="35"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
@@ -1401,7 +1400,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="35"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
@@ -1412,16 +1411,16 @@
         <v>22</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="34"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="3" t="s">
         <v>46</v>
       </c>
@@ -1435,16 +1434,16 @@
         <v>23</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="38"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
@@ -1455,16 +1454,16 @@
         <v>24</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="39"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="25"/>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
@@ -1476,16 +1475,16 @@
         <v>25</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
@@ -1497,7 +1496,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>5</v>
@@ -1506,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>2</v>
@@ -1517,7 +1516,7 @@
       <c r="J22" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="38"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
@@ -1555,13 +1554,13 @@
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="43"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="29"/>
     </row>
     <row r="24" spans="1:15" ht="42" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
@@ -1600,22 +1599,22 @@
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="K24" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="L24" s="31" t="str">
+      <c r="L24" s="17" t="str">
         <f>B2</f>
         <v xml:space="preserve">ALEXSANDRO DIEGO SEMPKOWSKI DE ABREU                        </v>
       </c>
-      <c r="M24" s="31" t="str">
+      <c r="M24" s="17" t="str">
         <f>B9</f>
         <v xml:space="preserve">DOUGLAS REGIS HAMMES                        </v>
       </c>
-      <c r="N24" s="31" t="str">
+      <c r="N24" s="17" t="str">
         <f>B16</f>
         <v xml:space="preserve">KAUÃ DA SILVA SILVEIRA                        </v>
       </c>
-      <c r="O24" s="31" t="str">
+      <c r="O24" s="17" t="str">
         <f>B23</f>
         <v xml:space="preserve">RICK JANES MATOS DIAS                        </v>
       </c>
@@ -1656,23 +1655,23 @@
         <f t="shared" si="18"/>
         <v>21</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="31" t="str">
+      <c r="L25" s="17" t="str">
         <f>B3</f>
         <v xml:space="preserve">AMANDA DA ROSA BOEHRINGER ELLER                        </v>
       </c>
-      <c r="M25" s="31" t="str">
+      <c r="M25" s="17" t="str">
         <f t="shared" ref="M25:M29" si="19">B10</f>
         <v xml:space="preserve">EDUARDO CORREA                        </v>
       </c>
-      <c r="N25" s="31" t="str">
+      <c r="N25" s="17" t="str">
         <f t="shared" ref="N25:N29" si="20">B17</f>
         <v xml:space="preserve">KAUE CASTANHEIRO GRAHL                        </v>
       </c>
-      <c r="O25" s="31" t="str">
-        <f t="shared" ref="O25:O28" si="21">B24</f>
+      <c r="O25" s="17" t="str">
+        <f t="shared" ref="O25:O27" si="21">B24</f>
         <v xml:space="preserve">VICTOR CESAR MACHADO                        </v>
       </c>
     </row>
@@ -1712,22 +1711,22 @@
         <f t="shared" si="22"/>
         <v>28</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L26" s="31" t="str">
-        <f t="shared" ref="L26:L27" si="23">B4</f>
+      <c r="L26" s="17" t="str">
+        <f t="shared" ref="L26" si="23">B4</f>
         <v xml:space="preserve">BRUNO EDUARDO BURGER                        </v>
       </c>
-      <c r="M26" s="31" t="str">
+      <c r="M26" s="17" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">FILLIPE GABRIEL HILLESHEIM SANTOS                        </v>
       </c>
-      <c r="N26" s="31" t="str">
+      <c r="N26" s="17" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">LARISSA KOBALL ALVES                        </v>
       </c>
-      <c r="O26" s="31"/>
+      <c r="O26" s="17"/>
     </row>
     <row r="27" spans="1:15" ht="42" x14ac:dyDescent="0.45">
       <c r="C27" s="5"/>
@@ -1759,22 +1758,22 @@
         <f t="shared" si="24"/>
         <v>35</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="K27" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="31" t="str">
+      <c r="L27" s="17" t="str">
         <f>B5</f>
         <v xml:space="preserve">BRUNO OSVALDO SASSE                        </v>
       </c>
-      <c r="M27" s="31" t="str">
+      <c r="M27" s="17" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">GLEISON SCHLEMPER VIEIRA DA SILVA                        </v>
       </c>
-      <c r="N27" s="31" t="str">
+      <c r="N27" s="17" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">LEANDRO MELO                        </v>
       </c>
-      <c r="O27" s="31" t="str">
+      <c r="O27" s="17" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">BRENO </v>
       </c>
@@ -1809,22 +1808,22 @@
         <f t="shared" si="25"/>
         <v>42</v>
       </c>
-      <c r="K28" s="33" t="s">
+      <c r="K28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="31" t="str">
+      <c r="L28" s="17" t="str">
         <f>B6</f>
         <v xml:space="preserve">CARLOS EDUARDO DA SILVA MULLER                        </v>
       </c>
-      <c r="M28" s="31" t="str">
+      <c r="M28" s="17" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">GUILHERME SCHRODER                        </v>
       </c>
-      <c r="N28" s="31" t="str">
+      <c r="N28" s="17" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">LETÍCIA DOS SANTOS                        </v>
       </c>
-      <c r="O28" s="32" t="s">
+      <c r="O28" s="18" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1858,22 +1857,22 @@
         <f t="shared" si="26"/>
         <v>49</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="K29" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="31" t="str">
+      <c r="L29" s="17" t="str">
         <f>B7</f>
         <v xml:space="preserve">DJONATA SERAFIM                        </v>
       </c>
-      <c r="M29" s="31" t="str">
+      <c r="M29" s="17" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">GUILHERME STEIN ZUNINO SGROTT                        </v>
       </c>
-      <c r="N29" s="31" t="str">
+      <c r="N29" s="17" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">MATHEUS BENEDITO SCHRAMM                        </v>
       </c>
-      <c r="O29" s="31"/>
+      <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C30" s="5"/>
@@ -1905,22 +1904,22 @@
         <f t="shared" si="27"/>
         <v>56</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="K30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="31" t="str">
+      <c r="L30" s="17" t="str">
         <f>B8</f>
         <v xml:space="preserve">DOUGLAS BENTO DA SILVA                        </v>
       </c>
-      <c r="M30" s="31" t="str">
+      <c r="M30" s="17" t="str">
         <f t="shared" ref="M30" si="28">B15</f>
         <v xml:space="preserve">ISAAC HILLESHEIM LEDER                        </v>
       </c>
-      <c r="N30" s="31" t="str">
+      <c r="N30" s="17" t="str">
         <f t="shared" ref="N30" si="29">B22</f>
         <v xml:space="preserve">RAÍSSA LINO CORREA                        </v>
       </c>
-      <c r="O30" s="31"/>
+      <c r="O30" s="17"/>
     </row>
     <row r="31" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C31" s="5"/>
@@ -1952,7 +1951,7 @@
         <f t="shared" si="30"/>
         <v>63</v>
       </c>
-      <c r="K31" s="38"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="C32" s="5"/>
@@ -1984,7 +1983,7 @@
         <f t="shared" si="31"/>
         <v>70</v>
       </c>
-      <c r="K32" s="38"/>
+      <c r="K32" s="24"/>
     </row>
     <row r="33" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D33" s="8"/>
@@ -1994,7 +1993,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="35"/>
+      <c r="K33" s="21"/>
     </row>
     <row r="34" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C34" s="5"/>
@@ -2005,7 +2004,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="35"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C35" s="5"/>
@@ -2016,7 +2015,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="35"/>
+      <c r="K35" s="21"/>
     </row>
     <row r="36" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C36" s="5"/>
@@ -2027,7 +2026,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="35"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C37" s="5"/>
@@ -2038,7 +2037,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="35"/>
+      <c r="K37" s="21"/>
     </row>
     <row r="38" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="5"/>

--- a/atividades/Atividade01e02.xlsx
+++ b/atividades/Atividade01e02.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="2835" windowWidth="51030" windowHeight="23325"/>
+    <workbookView xWindow="3015" yWindow="2835" windowWidth="51030" windowHeight="23325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>Grupo 1</t>
   </si>
@@ -178,6 +179,21 @@
   </si>
   <si>
     <t>GRUPOS</t>
+  </si>
+  <si>
+    <t>Equipe 01</t>
+  </si>
+  <si>
+    <t>Equipe 02</t>
+  </si>
+  <si>
+    <t>Equipe 03</t>
+  </si>
+  <si>
+    <t>Equipe 04</t>
+  </si>
+  <si>
+    <t>Equipe 05</t>
   </si>
 </sst>
 </file>
@@ -291,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -436,6 +458,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,6 +510,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -770,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,18 +835,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
       <c r="K1" s="20"/>
       <c r="L1" s="4"/>
     </row>
@@ -1051,15 +1099,15 @@
         <v>13</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="23"/>
       <c r="L8" s="1"/>
       <c r="M8" s="11" t="s">
@@ -1411,15 +1459,15 @@
         <v>22</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="20"/>
       <c r="L18" s="3" t="s">
         <v>46</v>
@@ -1434,15 +1482,15 @@
         <v>23</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
       <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
@@ -1454,15 +1502,15 @@
         <v>24</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
       <c r="K20" s="25"/>
       <c r="L20" s="14"/>
     </row>
@@ -1475,15 +1523,15 @@
         <v>25</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
@@ -1554,13 +1602,13 @@
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
     </row>
     <row r="24" spans="1:15" ht="42" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
@@ -2166,4 +2214,565 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="56.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="47.7109375" style="45" customWidth="1"/>
+    <col min="7" max="11" width="15.28515625" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8">
+        <f>C3+2</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8">
+        <f>E3+2</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <f t="shared" ref="A5:A24" si="0">A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:C6" si="1">C4+2</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8">
+        <f>C11+2</f>
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8">
+        <v>22</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="K12" s="46"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" ref="C13:C14" si="2">C12+2</f>
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13:E14" si="3">E12+1</f>
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="K13" s="46"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="K15" s="46"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="K16" s="46"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="K17" s="46"/>
+    </row>
+    <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C17+2</f>
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+    </row>
+    <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" ref="C19:C21" si="4">C18+2</f>
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+    </row>
+    <row r="20" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+    </row>
+    <row r="21" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+    </row>
+    <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="47">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+    </row>
+    <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="47">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+    </row>
+    <row r="24" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="47">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="47">
+        <v>24</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="49">
+        <v>25</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>